--- a/src/Game.xlsx
+++ b/src/Game.xlsx
@@ -38,24 +38,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+  <si>
+    <t>key:0</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>name</t>
+    <t>游戏名</t>
   </si>
   <si>
-    <t>class</t>
+    <t>类型</t>
   </si>
   <si>
-    <t>type</t>
+    <t>是否打开</t>
   </si>
   <si>
-    <t xml:space="preserve">category </t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>测试</t>
   </si>
   <si>
     <t>int</t>
@@ -64,10 +64,25 @@
     <t>string</t>
   </si>
   <si>
-    <t>category</t>
+    <t>list&lt;list&lt;int&gt;&gt;</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>game1</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
   <si>
     <t>game2</t>
@@ -1176,49 +1191,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1232,492 +1243,362 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10005</v>
+      </c>
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
-        <v>10005</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10004</v>
+      </c>
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
-        <v>10004</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10006</v>
+      </c>
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
-        <v>10006</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
         <v>10003</v>
       </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9">
         <v>10001</v>
       </c>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="7">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9">
         <v>10002</v>
       </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10007</v>
+      </c>
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="9">
-        <v>10007</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9">
         <v>11000</v>
       </c>
-      <c r="E12" s="10">
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9">
         <v>10008</v>
       </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:4">
       <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9">
         <v>10009</v>
       </c>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="D14" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:4">
       <c r="A15" s="7">
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9">
         <v>10010</v>
       </c>
-      <c r="E15" s="10">
-        <v>2</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D15" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:4">
       <c r="A16" s="7">
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9">
         <v>10011</v>
       </c>
-      <c r="E16" s="10">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:4">
       <c r="A17" s="7">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9">
         <v>10012</v>
       </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:4">
       <c r="A18" s="7">
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9">
         <v>10013</v>
       </c>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="D18" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:4">
       <c r="A19" s="7">
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9">
         <v>10014</v>
       </c>
-      <c r="E19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="D19" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:4">
       <c r="A20" s="7">
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9">
+        <v>29</v>
+      </c>
+      <c r="C20" s="9">
         <v>10015</v>
       </c>
-      <c r="E20" s="10">
-        <v>3</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="D20" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:4">
       <c r="A21" s="7">
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
+        <v>30</v>
+      </c>
+      <c r="C21" s="9">
         <v>10016</v>
       </c>
-      <c r="E21" s="10">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="D21" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:4">
       <c r="A22" s="7">
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
+        <v>31</v>
+      </c>
+      <c r="C22" s="9">
         <v>10017</v>
       </c>
-      <c r="E22" s="10">
-        <v>3</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="D22" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:4">
       <c r="A23" s="7">
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
+        <v>32</v>
+      </c>
+      <c r="C23" s="9">
         <v>10018</v>
       </c>
-      <c r="E23" s="10">
-        <v>3</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="D23" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:4">
       <c r="A24" s="7">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
+        <v>33</v>
+      </c>
+      <c r="C24" s="9">
         <v>10019</v>
       </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="D24" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:4">
       <c r="A25" s="7">
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9">
+        <v>34</v>
+      </c>
+      <c r="C25" s="9">
         <v>10020</v>
       </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="D25" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="11"/>
+    <row r="26" spans="3:3">
+      <c r="C26" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,7 +1620,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1747,16 +1628,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1775,16 +1656,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
